--- a/biology/Microbiologie/Negativicutes/Negativicutes.xlsx
+++ b/biology/Microbiologie/Negativicutes/Negativicutes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Negativicutes forment une classe de bactéries gram négatives comprenant des espèces comme Selenomonas sputigena impliquées dans les parodontites.
 </t>
@@ -511,9 +523,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La classe Negativicutes a été créée en 2010 en même temps que l'espèce Negativicoccus succinicivorans et son genre Negativicoccus, l'ordre des Selenomonadales, et la famille Acidaminococcaceae[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La classe Negativicutes a été créée en 2010 en même temps que l'espèce Negativicoccus succinicivorans et son genre Negativicoccus, l'ordre des Selenomonadales, et la famille Acidaminococcaceae.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les bactéries de cet ordre sont formées de cellules à paroi typiques des bactéries à gram-négatif[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les bactéries de cet ordre sont formées de cellules à paroi typiques des bactéries à gram-négatif.
 </t>
         </is>
       </c>
@@ -573,16 +589,87 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Le nom correct complet (avec auteur) de ce taxon est Negativicutes Marchandin et al. 2010[3].
-Negativicutes a pour synonymes[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le nom correct complet (avec auteur) de ce taxon est Negativicutes Marchandin et al. 2010.
+Negativicutes a pour synonymes :
 Selenobacteria Cavalier-Smith 2006
-Selenomonadia Cavalier-Smith 2020
-Étymologie
-L'étymologie de cette classe Negativicutes est la suivante : L. masc. adj. negativus, négatif; L. fem. n. cutis, peau; L. fem. pl. n. cutes, peaux; N.L. fem. pl. n. Negativicutes, division avec des cellules formées par une peau contenant deux bicouches lipidiques concentriques, la membrane cytoplasmique et une mmebrane externe, indiquant des cellules avec paroi cellulaire de type Gram-negatif type dans le phylum des Firmicutes, et non dérivé d'un nom de genre[3].
-Liste des ordres
-Selon LPSN  (15 juin 2023)[3], cette classe comprend les trois ordres suivants :
+Selenomonadia Cavalier-Smith 2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Negativicutes</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Negativicutes</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'étymologie de cette classe Negativicutes est la suivante : L. masc. adj. negativus, négatif; L. fem. n. cutis, peau; L. fem. pl. n. cutes, peaux; N.L. fem. pl. n. Negativicutes, division avec des cellules formées par une peau contenant deux bicouches lipidiques concentriques, la membrane cytoplasmique et une mmebrane externe, indiquant des cellules avec paroi cellulaire de type Gram-negatif type dans le phylum des Firmicutes, et non dérivé d'un nom de genre.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Negativicutes</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Negativicutes</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Liste des ordres</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Selon LPSN  (15 juin 2023), cette classe comprend les trois ordres suivants :
 Acidaminococcales Campbell et al. 2015
 Selenomonadales Marchandin et al. 2010
 Veillonellales Campbell et al. 2015</t>
